--- a/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9D596D0-CC8B-4F71-875B-15B392479599}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{828DCCCF-73C3-45C4-9268-A5FFF86731DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{828DCCCF-73C3-45C4-9268-A5FFF86731DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D623664-8B9F-4D2F-BFC9-6ED687BC3513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D623664-8B9F-4D2F-BFC9-6ED687BC3513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9D596D0-CC8B-4F71-875B-15B392479599}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F9D596D0-CC8B-4F71-875B-15B392479599}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C7059AB6-BF21-4E9C-AE4B-0A6DB8F3281B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
+++ b/main/bin/Debug/ArquivosDados/BuscaNome.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C7059AB6-BF21-4E9C-AE4B-0A6DB8F3281B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8D623664-8B9F-4D2F-BFC9-6ED687BC3513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
